--- a/Arrays _new.xlsx
+++ b/Arrays _new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[GeeksForGeeks] Data Structures and Algorithms (Self-Paced Course)\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anmol\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7945EAFC-5686-4649-B0F0-5C0DB5691E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7EB8D-BAEE-45F8-9D5D-9E399F809449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A598F219-872F-4235-B173-7156C066C73F}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
@@ -339,6 +339,21 @@
   </si>
   <si>
     <t>new /imp</t>
+  </si>
+  <si>
+    <t>3 question daily</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Solve the problem in chuck form divide into 2 part</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,6 +550,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,28 +881,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5A33E-05F1-4836-A90E-1C5BFCB8C04D}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="101.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="86.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -894,12 +912,14 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -908,13 +928,16 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -933,12 +956,18 @@
       <c r="F7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -954,8 +983,14 @@
       <c r="E9" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="G9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -966,9 +1001,17 @@
         <v>88</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="9">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -979,9 +1022,17 @@
         <v>88</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="9">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -997,8 +1048,14 @@
       <c r="E12" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="G12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="9">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1014,8 +1071,14 @@
       <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="G13" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1031,8 +1094,14 @@
       <c r="E14" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="G14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="9">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1045,9 +1114,11 @@
       <c r="D15" s="22">
         <v>44736</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1060,9 +1131,17 @@
       <c r="D16" s="22">
         <v>44736</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="E16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="9">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1078,11 +1157,15 @@
       <c r="E17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="G17" s="25"/>
+      <c r="H17" s="9">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1178,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1194,17 @@
       <c r="E19" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="9">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1145,8 +1237,14 @@
       <c r="E21" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="9">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -1165,8 +1263,11 @@
       <c r="F22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="H22" s="9">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1280,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -1211,8 +1312,11 @@
       <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="H25" s="9">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +1412,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
